--- a/llm-approach/experiment_outputs/eventual_experiment/poe_GPT-4-20231015231246/llm-manual-1.xlsx
+++ b/llm-approach/experiment_outputs/eventual_experiment/poe_GPT-4-20231015231246/llm-manual-1.xlsx
@@ -2676,7 +2676,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -2836,6 +2836,15 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -2938,7 +2947,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2955,7 +2964,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -3325,6 +3334,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -3627,7 +3647,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3644,7 +3664,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -4037,6 +4057,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4408,7 +4439,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4425,7 +4456,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -4818,6 +4849,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -5143,7 +5185,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5160,7 +5202,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -5576,6 +5618,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -5924,7 +5977,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5941,7 +5994,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -6265,6 +6318,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
     <row r="15" spans="1:10">
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -6521,7 +6585,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6538,7 +6602,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -6792,6 +6856,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
     <row r="12" spans="1:10">
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -6979,7 +7054,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6996,7 +7071,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -7185,6 +7260,15 @@
       <c r="B8" t="s">
         <v>540</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -7304,7 +7388,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7321,7 +7405,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -7806,6 +7890,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -8223,7 +8318,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8240,7 +8335,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8429,6 +8524,15 @@
       <c r="B8" t="s">
         <v>583</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -8594,7 +8698,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8611,7 +8715,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -8800,6 +8904,15 @@
       <c r="B8" t="s">
         <v>599</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -8965,7 +9078,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8982,7 +9095,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -9490,6 +9603,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
     <row r="23" spans="4:10">
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -10022,7 +10146,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10039,7 +10163,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -10294,6 +10418,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
     <row r="12" spans="1:10">
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -10527,7 +10662,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10544,7 +10679,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -11190,6 +11325,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
     <row r="29" spans="4:10">
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -11768,7 +11914,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11785,7 +11931,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="182.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -12661,6 +12807,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
     <row r="39" spans="4:10">
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -13469,7 +13626,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D38:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13486,7 +13643,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -13675,6 +13832,15 @@
       <c r="B8" t="s">
         <v>717</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
@@ -13794,7 +13960,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13811,7 +13977,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -14112,6 +14278,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -14368,7 +14545,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14385,7 +14562,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -14801,6 +14978,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -15149,7 +15337,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15166,7 +15354,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -15628,6 +15816,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -16022,7 +16221,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16039,7 +16238,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -16501,6 +16700,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -16987,7 +17197,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17004,7 +17214,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -17466,6 +17676,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -17860,7 +18081,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17877,7 +18098,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -18362,6 +18583,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -18779,7 +19011,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18796,7 +19028,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -19007,6 +19239,17 @@
         <v>295</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
     <row r="10" spans="1:10">
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -19148,7 +19391,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19165,7 +19408,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="146.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -19788,6 +20031,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
     <row r="28" spans="4:10">
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -20389,7 +20643,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20406,7 +20660,7 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -20868,6 +21122,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -21262,7 +21527,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
